--- a/Projects/Project 1 - Processor/microcode/microcode.xlsx
+++ b/Projects/Project 1 - Processor/microcode/microcode.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/ppatel493_gatech_edu/Documents/CS 2200/datapath-project/src/microcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erica\Documents\Georgia Tech Files\Spring 2022\CS 2200 - Introduction to Systems and Networks\Projects\Project 1 - Processor\microcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="6_{FF4444CC-4BBD-462F-8C4A-33312D7A0416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8A4052-5F90-4442-804D-F2C4CBD7B8CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A7EED-879A-429C-A847-851E744F359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14205" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>Index</t>
   </si>
@@ -147,7 +147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>The values in the 'Hex' Column are circuitsim compatible. You should be able to just copy and paste them directly into the circuitsim ROMs. Not all rows (of the above table) may be used for the microcode.</t>
     </r>
@@ -169,7 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>: The values for the sequencer and CC ROMs can be base 10 decimal numbers, they will be automatically converted in the 'HEX' column</t>
     </r>
@@ -202,12 +202,228 @@
   <si>
     <t>BrSel</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>NAND</t>
+  </si>
+  <si>
+    <t>ADDI</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>JALR</t>
+  </si>
+  <si>
+    <t>HALT</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <t>BGT</t>
+  </si>
+  <si>
+    <t>LEA</t>
+  </si>
+  <si>
+    <t>fetch1</t>
+  </si>
+  <si>
+    <t>fetch2</t>
+  </si>
+  <si>
+    <t>fetch3</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>addi1</t>
+  </si>
+  <si>
+    <t>addi2</t>
+  </si>
+  <si>
+    <t>addi3</t>
+  </si>
+  <si>
+    <t>nand1</t>
+  </si>
+  <si>
+    <t>nand2</t>
+  </si>
+  <si>
+    <t>lw1</t>
+  </si>
+  <si>
+    <t>nand3</t>
+  </si>
+  <si>
+    <t>lw2</t>
+  </si>
+  <si>
+    <t>lw3</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>sw1</t>
+  </si>
+  <si>
+    <t>sw2</t>
+  </si>
+  <si>
+    <t>sw3</t>
+  </si>
+  <si>
+    <t>sw4</t>
+  </si>
+  <si>
+    <t>br1</t>
+  </si>
+  <si>
+    <t>br2</t>
+  </si>
+  <si>
+    <t>br3</t>
+  </si>
+  <si>
+    <t>jalr1</t>
+  </si>
+  <si>
+    <t>jalr2</t>
+  </si>
+  <si>
+    <t>halt1</t>
+  </si>
+  <si>
+    <t>blt1</t>
+  </si>
+  <si>
+    <t>blt2</t>
+  </si>
+  <si>
+    <t>blt3</t>
+  </si>
+  <si>
+    <t>blt4</t>
+  </si>
+  <si>
+    <t>blt5</t>
+  </si>
+  <si>
+    <t>blt6</t>
+  </si>
+  <si>
+    <t>blt7</t>
+  </si>
+  <si>
+    <t>bgt1</t>
+  </si>
+  <si>
+    <t>bgt2</t>
+  </si>
+  <si>
+    <t>bgt3</t>
+  </si>
+  <si>
+    <t>bgt4</t>
+  </si>
+  <si>
+    <t>bgt5</t>
+  </si>
+  <si>
+    <t>bgt6</t>
+  </si>
+  <si>
+    <t>bgt7</t>
+  </si>
+  <si>
+    <t>lea1</t>
+  </si>
+  <si>
+    <t>lea2</t>
+  </si>
+  <si>
+    <t>lea3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +485,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -390,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,6 +686,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,9 +942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomLeft" activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -938,7 +1163,9 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
@@ -955,11 +1182,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -971,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -983,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -1024,14 +1251,16 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="8" t="str">
         <f t="shared" ref="AE3:AE49" si="1">_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC3,AB3),1),     BIN2HEX(_xlfn.CONCAT(AA3,Z3,Y3,X3),1),     BIN2HEX(_xlfn.CONCAT(W3,V3,U3,T3),1),     BIN2HEX(_xlfn.CONCAT(S3,R3,Q3,P3),1),     BIN2HEX(_xlfn.CONCAT(O3,N3,M3,L3),1),     BIN2HEX(_xlfn.CONCAT(K3,J3,C3,D3),1),     BIN2HEX(_xlfn.CONCAT(E3,F3,G3,H3),1) )</f>
-        <v>0000000</v>
+        <v>0006201</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="14.25" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -1045,20 +1274,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1073,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1117,7 +1346,7 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0001082</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="14.25" customHeight="1">
@@ -1125,7 +1354,9 @@
         <f t="shared" ref="A5:A49" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
@@ -1155,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1164,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
@@ -1194,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="2">
         <v>0</v>
@@ -1211,7 +1442,7 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0E00900</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="14.25" customHeight="1">
@@ -1219,7 +1450,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
@@ -1230,17 +1463,17 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1304,8 +1537,8 @@
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000</v>
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC6,AB6),1),     BIN2HEX(_xlfn.CONCAT(AA6,Z6,Y6,X6),1),     BIN2HEX(_xlfn.CONCAT(W6,V6,U6,T6),1),     BIN2HEX(_xlfn.CONCAT(S6,R6,Q6,P6),1),     BIN2HEX(_xlfn.CONCAT(O6,N6,M6,L6),1),     BIN2HEX(_xlfn.CONCAT(K6,J6,C6,D6),1),     BIN2HEX(_xlfn.CONCAT(E6,F6,G6,H6),1) )</f>
+        <v>0000005</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="14.25" customHeight="1">
@@ -1313,7 +1546,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
@@ -1333,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="0"/>
+        <f>BIN2DEC(_xlfn.CONCAT(C7:H7))</f>
         <v>0</v>
       </c>
       <c r="J7" s="2">
@@ -1398,7 +1633,7 @@
       </c>
       <c r="AD7" s="4"/>
       <c r="AE7" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC7,AB7),1),     BIN2HEX(_xlfn.CONCAT(AA7,Z7,Y7,X7),1),     BIN2HEX(_xlfn.CONCAT(W7,V7,U7,T7),1),     BIN2HEX(_xlfn.CONCAT(S7,R7,Q7,P7),1),     BIN2HEX(_xlfn.CONCAT(O7,N7,M7,L7),1),     BIN2HEX(_xlfn.CONCAT(K7,J7,C7,D7),1),     BIN2HEX(_xlfn.CONCAT(E7,F7,G7,H7),1) )</f>
         <v>0000000</v>
       </c>
     </row>
@@ -1407,7 +1642,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
@@ -1424,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1493,7 +1730,7 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="14.25" customHeight="1">
@@ -1501,7 +1738,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
@@ -1595,7 +1834,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
@@ -1689,7 +1930,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
@@ -1783,7 +2026,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
@@ -1877,7 +2122,9 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
@@ -1971,7 +2218,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
@@ -2065,7 +2314,9 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
@@ -2159,7 +2410,9 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
@@ -2253,7 +2506,9 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
@@ -2347,7 +2602,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
@@ -2441,7 +2698,9 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
@@ -2535,7 +2794,9 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
@@ -2629,7 +2890,9 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
@@ -2723,7 +2986,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
@@ -2817,7 +3082,9 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
@@ -2911,7 +3178,9 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
@@ -3005,7 +3274,9 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
@@ -3099,7 +3370,9 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
@@ -3193,7 +3466,9 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
@@ -3287,7 +3562,9 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
@@ -3381,7 +3658,9 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
@@ -3475,7 +3754,9 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
@@ -3569,7 +3850,9 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
@@ -3663,7 +3946,9 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
@@ -3757,7 +4042,9 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
@@ -3851,7 +4138,9 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
@@ -3945,7 +4234,9 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
@@ -4039,7 +4330,9 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
@@ -4133,7 +4426,9 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
@@ -4227,7 +4522,9 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
@@ -4321,7 +4618,9 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
@@ -4418,7 +4717,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
@@ -4512,7 +4813,9 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
@@ -4606,7 +4909,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
@@ -4700,7 +5005,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
@@ -4794,7 +5101,9 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
@@ -4888,7 +5197,9 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
@@ -5457,24 +5768,35 @@
       <c r="AM54" s="9"/>
     </row>
     <row r="55" spans="1:39" ht="14.25" customHeight="1">
-      <c r="B55" s="12"/>
+      <c r="B55" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2" t="str">
+        <f>"=0? FALSE"</f>
+        <v>=0? FALSE</v>
+      </c>
       <c r="J55" s="13" t="str">
         <f>DEC2HEX(C55)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="4"/>
+      <c r="L55" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N55" s="2">
+        <v>4</v>
+      </c>
       <c r="O55" s="13" t="str">
         <f t="shared" ref="O55:O70" si="3">DEC2HEX(N55,2)</f>
-        <v>00</v>
+        <v>04</v>
       </c>
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
@@ -5501,24 +5823,35 @@
       <c r="AM55" s="9"/>
     </row>
     <row r="56" spans="1:39" ht="14.25" customHeight="1">
-      <c r="B56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="17"/>
+      <c r="I56" s="17" t="str">
+        <f>"=0? TRUE"</f>
+        <v>=0? TRUE</v>
+      </c>
       <c r="J56" s="18" t="str">
         <f>DEC2HEX(C56)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="4"/>
+      <c r="L56" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N56" s="2">
+        <v>7</v>
+      </c>
       <c r="O56" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>07</v>
       </c>
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
@@ -5545,9 +5878,13 @@
       <c r="AM56" s="9"/>
     </row>
     <row r="57" spans="1:39" ht="14.25" customHeight="1">
-      <c r="L57" s="14"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="4"/>
+      <c r="L57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5563,9 +5900,13 @@
       <c r="AJ57" s="2"/>
     </row>
     <row r="58" spans="1:39" ht="14.25" customHeight="1">
-      <c r="L58" s="14"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="4"/>
+      <c r="L58" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5581,18 +5922,26 @@
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="1:39" ht="14.25" customHeight="1">
-      <c r="L59" s="14"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="4"/>
+      <c r="L59" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
     </row>
     <row r="60" spans="1:39" ht="14.25" customHeight="1">
-      <c r="L60" s="14"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="4"/>
+      <c r="L60" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5606,9 +5955,13 @@
       <c r="U60" s="23"/>
     </row>
     <row r="61" spans="1:39" ht="14.25" customHeight="1">
-      <c r="L61" s="14"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="4"/>
+      <c r="L61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5620,9 +5973,13 @@
       <c r="U61" s="23"/>
     </row>
     <row r="62" spans="1:39" ht="15" customHeight="1">
-      <c r="L62" s="14"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="4"/>
+      <c r="L62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5634,9 +5991,13 @@
       <c r="U62" s="23"/>
     </row>
     <row r="63" spans="1:39" ht="14.25" customHeight="1">
-      <c r="L63" s="14"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="4"/>
+      <c r="L63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5648,9 +6009,13 @@
       <c r="U63" s="23"/>
     </row>
     <row r="64" spans="1:39" ht="14.25" customHeight="1">
-      <c r="L64" s="14"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="4"/>
+      <c r="L64" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5662,8 +6027,13 @@
       <c r="U64" s="23"/>
     </row>
     <row r="65" spans="12:41" ht="14.25" customHeight="1">
-      <c r="L65" s="14"/>
-      <c r="M65" s="15"/>
+      <c r="L65" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65" s="29"/>
       <c r="O65" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5676,7 +6046,10 @@
     </row>
     <row r="66" spans="12:41" ht="14.25" customHeight="1">
       <c r="L66" s="14"/>
-      <c r="M66" s="15"/>
+      <c r="M66" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N66" s="29"/>
       <c r="O66" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5684,7 +6057,10 @@
     </row>
     <row r="67" spans="12:41" ht="14.25" customHeight="1">
       <c r="L67" s="14"/>
-      <c r="M67" s="15"/>
+      <c r="M67" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N67" s="29"/>
       <c r="O67" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5692,7 +6068,10 @@
     </row>
     <row r="68" spans="12:41" ht="14.25" customHeight="1">
       <c r="L68" s="14"/>
-      <c r="M68" s="15"/>
+      <c r="M68" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N68" s="29"/>
       <c r="O68" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5700,7 +6079,10 @@
     </row>
     <row r="69" spans="12:41" ht="14.25" customHeight="1">
       <c r="L69" s="14"/>
-      <c r="M69" s="15"/>
+      <c r="M69" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N69" s="29"/>
       <c r="O69" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
@@ -5708,7 +6090,10 @@
     </row>
     <row r="70" spans="12:41" ht="14.25" customHeight="1">
       <c r="L70" s="14"/>
-      <c r="M70" s="15"/>
+      <c r="M70" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" s="29"/>
       <c r="O70" s="13" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
